--- a/최종 테이블데이터/pkTimeFeeDTO.xlsx
+++ b/최종 테이블데이터/pkTimeFeeDTO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\공부자료\R과파이썬으로활용한데이터분석\SecondProject\최종 테이블데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\공부자료\GitHub\Gyeongui-line-forest-road-project\최종 테이블데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H4">
         <v>300</v>
@@ -553,19 +553,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H5">
         <v>150</v>
@@ -588,19 +588,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H6">
         <v>150</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H8">
         <v>150</v>
@@ -798,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H12">
         <v>350</v>
@@ -903,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H15">
         <v>250</v>
@@ -1743,19 +1743,19 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H39">
         <v>150</v>
@@ -1778,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H40">
         <v>150</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H41">
         <v>150</v>
@@ -1988,19 +1988,19 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H46">
         <v>150</v>
@@ -2023,19 +2023,19 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H47">
         <v>250</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H48">
         <v>250</v>
@@ -2093,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H49">
         <v>250</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H50">
         <v>150</v>
@@ -2233,19 +2233,19 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H53">
         <v>250</v>
@@ -2303,19 +2303,19 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H55">
         <v>200</v>
@@ -2373,19 +2373,19 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H57">
         <v>250</v>
@@ -2548,19 +2548,19 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H62">
         <v>200</v>
@@ -2583,19 +2583,19 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>2400</v>
+        <v>2359</v>
       </c>
       <c r="H63">
         <v>250</v>
